--- a/Listado Verbos .xlsx
+++ b/Listado Verbos .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alberto\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alberto\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5B85FB-18FA-47DB-9CE1-38ECB8AE3516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DB600F-C1A7-4A1F-8332-DA0B2EDA8AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1549,7 +1549,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1685,6 +1685,12 @@
       <sz val="12"/>
       <color theme="9"/>
       <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1847,7 +1853,7 @@
             <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65868924-3269-41D4-B5B0-C003209E15A6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -1912,7 +1918,7 @@
             <xdr14:cNvPr id="3" name="Entrada de lápiz 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A64EC29-E380-4437-B9C8-20BEB1B245B4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -1977,7 +1983,7 @@
             <xdr14:cNvPr id="4" name="Entrada de lápiz 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74DECF44-159E-482D-B314-202DDC670E5B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -2042,7 +2048,7 @@
             <xdr14:cNvPr id="5" name="Entrada de lápiz 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4163E5F-EDBC-4882-9DA2-113A7307E142}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -2107,7 +2113,7 @@
             <xdr14:cNvPr id="6" name="Entrada de lápiz 5">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C9C723A-2D01-4E0A-ADF3-7D8C4E4FD80B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -2172,7 +2178,7 @@
             <xdr14:cNvPr id="7" name="Entrada de lápiz 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A36535DF-160A-474B-AC04-69A91D9E60B1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -2237,7 +2243,7 @@
             <xdr14:cNvPr id="8" name="Entrada de lápiz 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16C690D2-71CF-491F-B849-64EB8172D0D9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -2302,7 +2308,7 @@
             <xdr14:cNvPr id="9" name="Entrada de lápiz 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9DBF5D3-D192-43CF-B4BE-D9E9FC85E188}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -2367,7 +2373,7 @@
             <xdr14:cNvPr id="10" name="Entrada de lápiz 9">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{085D40B6-7667-4E7A-B8C8-92D8B9AA86BF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -2432,7 +2438,7 @@
             <xdr14:cNvPr id="11" name="Entrada de lápiz 10">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E6968A7-3FD2-482C-8D2C-6577EF9D1DB3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -2497,7 +2503,7 @@
             <xdr14:cNvPr id="12" name="Entrada de lápiz 11">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF909B8E-15C9-44C2-8835-B1A1119452D3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -2562,7 +2568,7 @@
             <xdr14:cNvPr id="13" name="Entrada de lápiz 12">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90470B07-6CE9-4C17-B949-6BB0125F02A9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -2627,7 +2633,7 @@
             <xdr14:cNvPr id="14" name="Entrada de lápiz 13">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF0782BB-0464-47C5-A5A1-09A036CC9EF1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -2692,7 +2698,7 @@
             <xdr14:cNvPr id="15" name="Entrada de lápiz 14">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BE94D83-5DB2-4C8A-AC1E-2900B68C2BB3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -2757,7 +2763,7 @@
             <xdr14:cNvPr id="16" name="Entrada de lápiz 15">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC86BC22-8227-40FD-840F-B949F38207C9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -2822,7 +2828,7 @@
             <xdr14:cNvPr id="17" name="Entrada de lápiz 16">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{009D2CCB-C4C8-4711-A701-A548F32EA9E9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -3670,7 +3676,7 @@
   <dimension ref="A1:E127"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3752,23 +3758,23 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <f ca="1">RANDBETWEEN(1,115)</f>
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B10" s="9" t="str">
         <f ca="1">VLOOKUP(A10,$A$13:$E$127,2,FALSE)</f>
-        <v>cost</v>
+        <v>forget</v>
       </c>
       <c r="C10" s="10" t="str">
         <f ca="1">VLOOKUP(A10,$A$13:$E$127,3,FALSE)</f>
-        <v>cost</v>
+        <v>forgot</v>
       </c>
       <c r="D10" s="12" t="str">
         <f ca="1">VLOOKUP(A10,$A$13:$E$127,4,FALSE)</f>
-        <v>cost</v>
+        <v>forgotten</v>
       </c>
       <c r="E10" s="11" t="str">
         <f ca="1">VLOOKUP(A10,$A$13:$E$127,5,FALSE)</f>
-        <v>costar</v>
+        <v>olvidar</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
